--- a/individual_results/harvard/536.xlsx
+++ b/individual_results/harvard/536.xlsx
@@ -510,7 +510,7 @@
         <v>0.2</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="D2" t="n">
         <v>0.2</v>
@@ -519,7 +519,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
@@ -534,7 +534,7 @@
         <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="L2" t="n">
         <v>1</v>
@@ -556,7 +556,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -565,7 +565,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
@@ -580,7 +580,7 @@
         <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L3" t="n">
         <v>1</v>
@@ -602,7 +602,7 @@
         <v>0.3333333333333334</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.3333333333333334</v>
       </c>
       <c r="D4" t="n">
         <v>0.3333333333333334</v>
@@ -611,7 +611,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
@@ -626,7 +626,7 @@
         <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.3333333333333334</v>
       </c>
       <c r="L4" t="n">
         <v>1</v>
@@ -648,7 +648,7 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="C5" t="n">
-        <v>1.666666666666667</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="D5" t="n">
         <v>0.5555555555555556</v>
@@ -657,7 +657,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>2.142857142857143</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
@@ -672,7 +672,7 @@
         <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>1.666666666666667</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L5" t="n">
         <v>1</v>
@@ -694,7 +694,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1.561606311644851</v>
+        <v>0.4306765580733931</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -703,7 +703,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>2.130929753571458</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
@@ -718,7 +718,7 @@
         <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>2.017782560805999</v>
+        <v>1</v>
       </c>
       <c r="L6" t="n">
         <v>1</v>
@@ -786,7 +786,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
@@ -878,7 +878,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
